--- a/public/app-assets/ImportSamples/8-SalesPlanInstallmentsImport.xlsx
+++ b/public/app-assets/ImportSamples/8-SalesPlanInstallmentsImport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12930"/>
+    <workbookView windowWidth="28800" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>unit_short_label *</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>GF-13</t>
+  </si>
+  <si>
+    <t>paid</t>
   </si>
   <si>
     <t>expense</t>
@@ -81,11 +84,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -136,6 +139,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -145,30 +247,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,97 +270,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,187 +296,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,15 +487,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -511,17 +505,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,26 +525,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,6 +546,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -587,142 +590,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -732,7 +735,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -747,10 +750,11 @@
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,8 +1018,8 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1"/>
@@ -1150,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
@@ -1189,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
@@ -1228,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
@@ -1264,14 +1268,16 @@
         <v>25</v>
       </c>
       <c r="J6" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="10">
+        <v>44835</v>
+      </c>
       <c r="M6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:13">
@@ -1303,14 +1309,16 @@
         <v>25</v>
       </c>
       <c r="J7" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="10">
+        <v>44846</v>
+      </c>
       <c r="M7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:13">
@@ -1342,14 +1350,16 @@
         <v>25</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="10">
+        <v>44857</v>
+      </c>
       <c r="M8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:13">
@@ -1369,7 +1379,7 @@
         <v>44863</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" s="8">
         <v>44920</v>
@@ -1381,14 +1391,16 @@
         <v>25</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="10">
+        <v>44858</v>
+      </c>
       <c r="M9" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:13">

--- a/public/app-assets/ImportSamples/8-SalesPlanInstallmentsImport.xlsx
+++ b/public/app-assets/ImportSamples/8-SalesPlanInstallmentsImport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>unit_short_label *</t>
   </si>
@@ -34,6 +34,9 @@
     <t>type *</t>
   </si>
   <si>
+    <t>label</t>
+  </si>
+  <si>
     <t>due_date</t>
   </si>
   <si>
@@ -76,7 +79,10 @@
     <t>paid</t>
   </si>
   <si>
-    <t>expense</t>
+    <t>additional_expense</t>
+  </si>
+  <si>
+    <t>new-expense</t>
   </si>
 </sst>
 </file>
@@ -85,10 +91,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -140,6 +146,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -155,21 +168,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,27 +227,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,61 +266,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,6 +302,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -314,169 +326,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,6 +521,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -525,6 +546,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,30 +585,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -590,142 +596,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1016,10 +1022,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1"/>
@@ -1029,18 +1035,19 @@
     <col min="3" max="3" width="14.875" customWidth="1"/>
     <col min="4" max="4" width="27.625" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="19.875" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="17.75" customWidth="1"/>
-    <col min="11" max="11" width="22.75" customWidth="1"/>
-    <col min="12" max="12" width="14.75" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="28" width="8.88333333333333" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="19.875" customWidth="1"/>
+    <col min="10" max="10" width="18.125" customWidth="1"/>
+    <col min="11" max="11" width="17.75" customWidth="1"/>
+    <col min="12" max="12" width="22.75" customWidth="1"/>
+    <col min="13" max="13" width="14.75" customWidth="1"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="15" max="29" width="8.88333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:13">
+    <row r="1" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1066,7 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1080,10 +1087,13 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:13">
+    <row r="2" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2">
         <v>1234567890123</v>
@@ -1098,33 +1108,34 @@
         <v>44862</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="8">
+        <v>44913</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>25</v>
+      </c>
+      <c r="K2" s="3">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3">
+        <v>5</v>
+      </c>
+      <c r="M2" s="9">
+        <v>44913</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:14">
+      <c r="A3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" s="8">
-        <v>44913</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>25</v>
-      </c>
-      <c r="J2" s="3">
-        <v>20</v>
-      </c>
-      <c r="K2" s="3">
-        <v>5</v>
-      </c>
-      <c r="L2" s="9">
-        <v>44913</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:13">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="B3" s="2">
         <v>1234567890123</v>
@@ -1139,31 +1150,32 @@
         <v>44862</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="8">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="8">
         <v>44914</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="3">
-        <v>25</v>
-      </c>
       <c r="J3" s="3">
+        <v>25</v>
+      </c>
+      <c r="K3" s="3">
         <v>0</v>
       </c>
-      <c r="K3" s="3">
-        <v>25</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>17</v>
+      <c r="L3" s="3">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:13">
+    <row r="4" customHeight="1" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2">
         <v>1234567890123</v>
@@ -1178,31 +1190,32 @@
         <v>44862</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="8">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="8">
         <v>44915</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>3</v>
       </c>
-      <c r="I4" s="3">
-        <v>25</v>
-      </c>
       <c r="J4" s="3">
+        <v>25</v>
+      </c>
+      <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="K4" s="3">
-        <v>25</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
-        <v>17</v>
+      <c r="L4" s="3">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:13">
+    <row r="5" customHeight="1" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
         <v>1234567890123</v>
@@ -1217,31 +1230,32 @@
         <v>44862</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="8">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="8">
         <v>44916</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>4</v>
       </c>
-      <c r="I5" s="3">
-        <v>25</v>
-      </c>
       <c r="J5" s="3">
+        <v>25</v>
+      </c>
+      <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" s="3">
-        <v>25</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
-        <v>17</v>
+      <c r="L5" s="3">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:13">
+    <row r="6" customHeight="1" spans="1:14">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3">
         <v>1234567890124</v>
@@ -1256,33 +1270,34 @@
         <v>44863</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="8">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="8">
         <v>44917</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="3">
-        <v>25</v>
-      </c>
       <c r="J6" s="3">
         <v>25</v>
       </c>
       <c r="K6" s="3">
+        <v>25</v>
+      </c>
+      <c r="L6" s="3">
         <v>0</v>
       </c>
-      <c r="L6" s="10">
+      <c r="M6" s="10">
         <v>44835</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:14">
+      <c r="A7" s="5" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:13">
-      <c r="A7" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="B7" s="3">
         <v>1234567890124</v>
@@ -1297,33 +1312,34 @@
         <v>44863</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="8">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="8">
         <v>44918</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="3">
-        <v>25</v>
-      </c>
       <c r="J7" s="3">
         <v>25</v>
       </c>
       <c r="K7" s="3">
+        <v>25</v>
+      </c>
+      <c r="L7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="10">
+      <c r="M7" s="10">
         <v>44846</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:14">
+      <c r="A8" s="5" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:13">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="B8" s="3">
         <v>1234567890124</v>
@@ -1338,33 +1354,34 @@
         <v>44863</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="8">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="8">
         <v>44919</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2</v>
       </c>
-      <c r="I8" s="3">
-        <v>25</v>
-      </c>
       <c r="J8" s="3">
         <v>25</v>
       </c>
       <c r="K8" s="3">
+        <v>25</v>
+      </c>
+      <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="10">
+      <c r="M8" s="10">
         <v>44857</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:14">
+      <c r="A9" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:13">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="B9" s="2">
         <v>1234567890124</v>
@@ -1379,44 +1396,48 @@
         <v>44863</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="8">
+        <v>44920</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
+        <v>25</v>
+      </c>
+      <c r="K9" s="3">
+        <v>25</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>44858</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="8">
-        <v>44920</v>
-      </c>
-      <c r="H9" s="3">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3">
-        <v>25</v>
-      </c>
-      <c r="J9" s="3">
-        <v>25</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="10">
-        <v>44858</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="10" customHeight="1" spans="1:13">
+    <row r="10" customHeight="1" spans="1:14">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="7"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="2"/>
+      <c r="L10" s="3"/>
       <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public/app-assets/ImportSamples/8-SalesPlanInstallmentsImport.xlsx
+++ b/public/app-assets/ImportSamples/8-SalesPlanInstallmentsImport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>unit_short_label *</t>
   </si>
@@ -61,6 +61,9 @@
     <t>GF-12</t>
   </si>
   <si>
+    <t>1231231212134</t>
+  </si>
+  <si>
     <t>downpayment</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
   </si>
   <si>
     <t>GF-13</t>
+  </si>
+  <si>
+    <t>3214325436547</t>
   </si>
   <si>
     <t>paid</t>
@@ -90,11 +96,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -130,6 +136,74 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -139,36 +213,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,105 +286,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -302,187 +308,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,17 +502,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,7 +515,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,30 +531,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,156 +564,186 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -756,11 +762,15 @@
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1025,7 +1035,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1"/>
@@ -1095,8 +1105,8 @@
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2">
-        <v>1234567890123</v>
+      <c r="B2" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="3">
         <v>100</v>
@@ -1108,7 +1118,7 @@
         <v>44862</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="8">
@@ -1130,15 +1140,15 @@
         <v>44913</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2">
-        <v>1234567890123</v>
+      <c r="B3" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="4">
         <v>100</v>
@@ -1150,7 +1160,7 @@
         <v>44862</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="8">
@@ -1170,15 +1180,15 @@
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2">
-        <v>1234567890123</v>
+      <c r="B4" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="3">
         <v>100</v>
@@ -1190,7 +1200,7 @@
         <v>44862</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="8">
@@ -1210,15 +1220,15 @@
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:14">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2">
-        <v>1234567890123</v>
+      <c r="B5" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="4">
         <v>100</v>
@@ -1230,7 +1240,7 @@
         <v>44862</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="8">
@@ -1250,15 +1260,15 @@
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:14">
       <c r="A6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1234567890124</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="4">
         <v>100</v>
@@ -1270,7 +1280,7 @@
         <v>44863</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="8">
@@ -1292,15 +1302,15 @@
         <v>44835</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:14">
       <c r="A7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1234567890124</v>
+        <v>20</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="4">
         <v>100</v>
@@ -1312,7 +1322,7 @@
         <v>44863</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="8">
@@ -1334,15 +1344,15 @@
         <v>44846</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:14">
       <c r="A8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1234567890124</v>
+        <v>20</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="C8" s="4">
         <v>100</v>
@@ -1354,7 +1364,7 @@
         <v>44863</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="8">
@@ -1376,15 +1386,15 @@
         <v>44857</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1234567890124</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="3">
         <v>100</v>
@@ -1396,10 +1406,10 @@
         <v>44863</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" s="8">
         <v>44920</v>
@@ -1420,7 +1430,7 @@
         <v>44858</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:14">

--- a/public/app-assets/ImportSamples/8-SalesPlanInstallmentsImport.xlsx
+++ b/public/app-assets/ImportSamples/8-SalesPlanInstallmentsImport.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="28800" windowHeight="11400"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -64,46 +67,211 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
-    <font>
-      <sz val="10.0"/>
+  <fonts count="25">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;DejaVu Sans&quot;"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -113,65 +281,526 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -361,32 +990,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.88"/>
-    <col customWidth="1" min="2" max="2" width="15.13"/>
-    <col customWidth="1" min="3" max="3" width="10.63"/>
-    <col customWidth="1" min="4" max="4" width="19.25"/>
-    <col customWidth="1" min="5" max="5" width="9.88"/>
-    <col customWidth="1" min="6" max="6" width="11.75"/>
-    <col customWidth="1" min="7" max="7" width="10.88"/>
-    <col customWidth="1" min="8" max="8" width="13.75"/>
-    <col customWidth="1" min="9" max="9" width="12.75"/>
-    <col customWidth="1" min="10" max="10" width="9.5"/>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="27.625" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="19.875" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,7 +1035,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -418,261 +1051,262 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" customHeight="1" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3">
-        <v>1.234567890123E12</v>
-      </c>
-      <c r="C2" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>44862.0</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="B2" s="2">
+        <v>1234567890123</v>
+      </c>
+      <c r="C2" s="3">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3">
+        <v>25</v>
+      </c>
+      <c r="E2" s="7">
+        <v>44862</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I2" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>44913.0</v>
+      <c r="G2" s="8"/>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>25</v>
+      </c>
+      <c r="J2" s="8">
+        <v>44913</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" customHeight="1" spans="1:10">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
-        <v>1.234567890123E12</v>
-      </c>
-      <c r="C3" s="9">
-        <v>100.0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>44862.0</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="B3" s="2">
+        <v>1234567890123</v>
+      </c>
+      <c r="C3" s="4">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3">
+        <v>25</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44862</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>44914.0</v>
+      <c r="G3" s="8"/>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>25</v>
+      </c>
+      <c r="J3" s="8">
+        <v>44914</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" customHeight="1" spans="1:10">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3">
-        <v>1.234567890123E12</v>
-      </c>
-      <c r="C4" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>44862.0</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="B4" s="2">
+        <v>1234567890123</v>
+      </c>
+      <c r="C4" s="3">
+        <v>100</v>
+      </c>
+      <c r="D4" s="3">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7">
+        <v>44862</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>44915.0</v>
+      <c r="G4" s="8"/>
+      <c r="H4" s="3">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>25</v>
+      </c>
+      <c r="J4" s="8">
+        <v>44915</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
-        <v>1.234567890123E12</v>
-      </c>
-      <c r="C5" s="9">
-        <v>100.0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>44862.0</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="B5" s="2">
+        <v>1234567890123</v>
+      </c>
+      <c r="C5" s="4">
+        <v>100</v>
+      </c>
+      <c r="D5" s="3">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7">
+        <v>44862</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>44916.0</v>
+      <c r="G5" s="8"/>
+      <c r="H5" s="3">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3">
+        <v>25</v>
+      </c>
+      <c r="J5" s="8">
+        <v>44916</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="10" t="s">
+    <row r="6" customHeight="1" spans="1:10">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4">
-        <v>1.234567890124E12</v>
-      </c>
-      <c r="C6" s="9">
-        <v>100.0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>44863.0</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="B6" s="3">
+        <v>1234567890124</v>
+      </c>
+      <c r="C6" s="4">
+        <v>100</v>
+      </c>
+      <c r="D6" s="3">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7">
+        <v>44863</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>44917.0</v>
+      <c r="G6" s="8"/>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>25</v>
+      </c>
+      <c r="J6" s="8">
+        <v>44917</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="10" t="s">
+    <row r="7" customHeight="1" spans="1:10">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4">
-        <v>1.234567890124E12</v>
-      </c>
-      <c r="C7" s="9">
-        <v>100.0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>44863.0</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="B7" s="3">
+        <v>1234567890124</v>
+      </c>
+      <c r="C7" s="4">
+        <v>100</v>
+      </c>
+      <c r="D7" s="3">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7">
+        <v>44863</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>44918.0</v>
+      <c r="G7" s="8"/>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>25</v>
+      </c>
+      <c r="J7" s="8">
+        <v>44918</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="10" t="s">
+    <row r="8" customHeight="1" spans="1:10">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4">
-        <v>1.234567890124E12</v>
-      </c>
-      <c r="C8" s="9">
-        <v>100.0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>44863.0</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="B8" s="3">
+        <v>1234567890124</v>
+      </c>
+      <c r="C8" s="4">
+        <v>100</v>
+      </c>
+      <c r="D8" s="3">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7">
+        <v>44863</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>44919.0</v>
+      <c r="G8" s="8"/>
+      <c r="H8" s="3">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>25</v>
+      </c>
+      <c r="J8" s="8">
+        <v>44919</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="9" customHeight="1" spans="1:10">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3">
-        <v>1.234567890124E12</v>
-      </c>
-      <c r="C9" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>44862.0</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="B9" s="2">
+        <v>1234567890124</v>
+      </c>
+      <c r="C9" s="3">
+        <v>100</v>
+      </c>
+      <c r="D9" s="3">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7">
+        <v>44862</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>44920.0</v>
+      <c r="H9" s="3">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>25</v>
+      </c>
+      <c r="J9" s="8">
+        <v>44920</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+    <row r="10" customHeight="1" spans="1:10">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/public/app-assets/ImportSamples/8-SalesPlanInstallmentsImport.xlsx
+++ b/public/app-assets/ImportSamples/8-SalesPlanInstallmentsImport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>unit_short_label *</t>
   </si>
@@ -46,7 +46,10 @@
     <t>due_date</t>
   </si>
   <si>
-    <t>GF-12</t>
+    <t>1F-04</t>
+  </si>
+  <si>
+    <t>123456789012364</t>
   </si>
   <si>
     <t>downpayment</t>
@@ -55,7 +58,10 @@
     <t>installment</t>
   </si>
   <si>
-    <t>GF-13</t>
+    <t>1F-07</t>
+  </si>
+  <si>
+    <t>1234567890126</t>
   </si>
   <si>
     <t>expense</t>
@@ -69,11 +75,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -99,33 +105,101 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;DejaVu Sans&quot;"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,100 +213,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,14 +260,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,181 +293,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,30 +490,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -519,32 +501,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,148 +522,198 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,15 +733,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1002,7 +1012,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1"/>
@@ -1055,20 +1065,20 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2">
-        <v>1234567890123</v>
+      <c r="B2" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="3">
-        <v>100</v>
+        <v>32100000</v>
       </c>
       <c r="D2" s="3">
-        <v>25</v>
+        <v>3399500</v>
       </c>
       <c r="E2" s="7">
         <v>44862</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="3">
@@ -1085,20 +1095,20 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
-        <v>1234567890123</v>
-      </c>
-      <c r="C3" s="4">
-        <v>100</v>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3">
+        <v>32100000</v>
       </c>
       <c r="D3" s="3">
-        <v>25</v>
+        <v>3399500</v>
       </c>
       <c r="E3" s="7">
         <v>44862</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="3">
@@ -1115,20 +1125,20 @@
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
-        <v>1234567890123</v>
+      <c r="B4" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="3">
-        <v>100</v>
+        <v>32100000</v>
       </c>
       <c r="D4" s="3">
-        <v>25</v>
+        <v>3399500</v>
       </c>
       <c r="E4" s="7">
         <v>44862</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="3">
@@ -1145,20 +1155,20 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
-        <v>1234567890123</v>
-      </c>
-      <c r="C5" s="4">
-        <v>100</v>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>32100000</v>
       </c>
       <c r="D5" s="3">
-        <v>25</v>
+        <v>3399500</v>
       </c>
       <c r="E5" s="7">
         <v>44862</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="3">
@@ -1172,23 +1182,23 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1234567890124</v>
-      </c>
-      <c r="C6" s="4">
-        <v>100</v>
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3">
+        <v>32100000</v>
       </c>
       <c r="D6" s="3">
-        <v>25</v>
+        <v>3399500</v>
       </c>
       <c r="E6" s="7">
         <v>44863</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="3">
@@ -1202,23 +1212,23 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:10">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1234567890124</v>
-      </c>
-      <c r="C7" s="4">
-        <v>100</v>
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>32100000</v>
       </c>
       <c r="D7" s="3">
-        <v>25</v>
+        <v>3399500</v>
       </c>
       <c r="E7" s="7">
         <v>44863</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="3">
@@ -1232,23 +1242,23 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1234567890124</v>
-      </c>
-      <c r="C8" s="4">
-        <v>100</v>
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3">
+        <v>32100000</v>
       </c>
       <c r="D8" s="3">
-        <v>25</v>
+        <v>3399500</v>
       </c>
       <c r="E8" s="7">
         <v>44863</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="3">
@@ -1262,26 +1272,26 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:10">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1234567890124</v>
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="3">
-        <v>100</v>
+        <v>32100000</v>
       </c>
       <c r="D9" s="3">
-        <v>25</v>
+        <v>3399500</v>
       </c>
       <c r="E9" s="7">
-        <v>44862</v>
+        <v>44863</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H9" s="3">
         <v>3</v>
@@ -1296,7 +1306,7 @@
     <row r="10" customHeight="1" spans="1:10">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="3"/>
       <c r="E10" s="7"/>
       <c r="F10" s="2"/>
